--- a/Gestion de projet/RACI.xlsx
+++ b/Gestion de projet/RACI.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\CESI\A2\PROJETS\Web\CESI_A2_Web_G2\Gestion de projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B15B52-2775-4912-AEB1-DA53B244276F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5403AC-085D-45AE-8FFC-2BF5B726BD02}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9048" xr2:uid="{A2076872-6800-46C7-9F42-7FD2B681CA44}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$B$1:$D$48</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1121,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72003DE1-9E5B-4928-9E7B-541B478A6C02}">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1135,74 +1138,88 @@
     <col min="10" max="10" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
+      <c r="B2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="J2" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>9</v>
+      <c r="D3" s="27"/>
+      <c r="E3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="5" t="s">
-        <v>5</v>
+      <c r="J3" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -1211,27 +1228,27 @@
     <row r="4" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="6" t="s">
-        <v>6</v>
+      <c r="J4" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -1240,7 +1257,7 @@
     <row r="5" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>19</v>
@@ -1259,17 +1276,17 @@
         <v>10</v>
       </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="7" t="s">
-        <v>7</v>
+      <c r="J5" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>19</v>
@@ -1288,49 +1305,47 @@
         <v>10</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="8" t="s">
-        <v>8</v>
-      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="1.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="1.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
+      <c r="B8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -1338,23 +1353,23 @@
     <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1365,7 +1380,7 @@
     <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>24</v>
@@ -1375,13 +1390,13 @@
         <v>9</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1392,7 +1407,7 @@
     <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>24</v>
@@ -1405,10 +1420,10 @@
         <v>9</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1419,24 +1434,16 @@
     <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D12" s="27"/>
-      <c r="E12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1446,10 +1453,10 @@
     <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="12"/>
@@ -1465,10 +1472,10 @@
     <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="12"/>
@@ -1484,12 +1491,14 @@
     <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="27"/>
+        <v>37</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>41</v>
+      </c>
       <c r="E15" s="12"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -1503,7 +1512,7 @@
     <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="14" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>37</v>
@@ -1524,13 +1533,13 @@
     <row r="17" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="9"/>
@@ -1545,7 +1554,7 @@
     <row r="18" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>37</v>
@@ -1566,10 +1575,10 @@
     <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>42</v>
@@ -1587,17 +1596,17 @@
     <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="G20" s="30"/>
       <c r="H20" s="9"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1608,17 +1617,17 @@
     <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="30"/>
+      <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1629,10 +1638,10 @@
     <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>47</v>
@@ -1650,10 +1659,10 @@
     <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>47</v>
@@ -1671,7 +1680,7 @@
     <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>35</v>
@@ -1692,10 +1701,10 @@
     <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D25" s="27" t="s">
         <v>47</v>
@@ -1713,13 +1722,13 @@
     <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="9"/>
@@ -1734,10 +1743,10 @@
     <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>53</v>
@@ -1755,10 +1764,10 @@
     <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>53</v>
@@ -1776,13 +1785,13 @@
     <row r="29" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="9"/>
@@ -1797,13 +1806,13 @@
     <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="9"/>
@@ -1818,13 +1827,13 @@
     <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="9"/>
@@ -1839,14 +1848,12 @@
     <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>47</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D32" s="27"/>
       <c r="E32" s="12"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
@@ -1860,10 +1867,10 @@
     <row r="33" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="D33" s="27"/>
       <c r="E33" s="12"/>
@@ -1879,16 +1886,22 @@
     <row r="34" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>63</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C34" s="18"/>
       <c r="D34" s="27"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
+      <c r="E34" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -1898,21 +1911,21 @@
     <row r="35" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="14" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="27"/>
       <c r="E35" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -1923,21 +1936,21 @@
     <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="14" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C36" s="18"/>
       <c r="D36" s="27"/>
       <c r="E36" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -1945,23 +1958,23 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
-      <c r="B37" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H37" s="9" t="s">
+      <c r="B37" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I37" s="1"/>
@@ -1970,25 +1983,15 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -2085,15 +2088,15 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -2130,76 +2133,62 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="E3:E38">
+  <autoFilter ref="B1:D48" xr:uid="{4F7D82F0-E572-416B-9143-FF278D256774}"/>
+  <conditionalFormatting sqref="E2:E37">
     <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH("I",E3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("I",E2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",E3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("C",E2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",E3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("A",E2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",E3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("R",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F38">
+  <conditionalFormatting sqref="F2:F37">
     <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH("I",F3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("I",F2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",F3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("C",F2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",F3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("A",F2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",F3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("R",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G38">
+  <conditionalFormatting sqref="G2:G37">
     <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH("I",G3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("I",G2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",G3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("C",G2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",G3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("A",G2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",G3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("R",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H38">
+  <conditionalFormatting sqref="H2:H37">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH("I",H3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("I",H2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",H3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("C",H2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",H3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("A",H2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",H3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("R",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Gestion de projet/RACI.xlsx
+++ b/Gestion de projet/RACI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\CESI\A2\PROJETS\Web\CESI_A2_Web_G2\Gestion de projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5403AC-085D-45AE-8FFC-2BF5B726BD02}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913DEC96-DDDD-486F-9218-5638DD1699BC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9048" xr2:uid="{A2076872-6800-46C7-9F42-7FD2B681CA44}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$B$1:$D$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$B$1:$H$242</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="65">
   <si>
     <t>Tâche / nom</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>PHP JS</t>
+  </si>
+  <si>
+    <t>CA</t>
   </si>
 </sst>
 </file>
@@ -266,7 +269,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,12 +306,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -506,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -551,27 +548,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -584,154 +568,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u val="none"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF3F30D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u val="none"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF3F30D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u val="none"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF3F30D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <b/>
@@ -806,8 +643,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{2C2F8519-CCA3-4E50-8C0A-A6948EFBAD6B}">
-      <tableStyleElement type="wholeTable" dxfId="17"/>
-      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="wholeTable" dxfId="5"/>
+      <tableStyleElement type="headerRow" dxfId="4"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1124,18 +961,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72003DE1-9E5B-4928-9E7B-541B478A6C02}">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:CZ241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="68.6640625" customWidth="1"/>
-    <col min="3" max="4" width="20.77734375" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="59.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="12.77734375" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="104" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
@@ -1143,10 +983,10 @@
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="20" t="s">
         <v>40</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1170,17 +1010,17 @@
     <row r="2" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="13" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="26"/>
+        <v>23</v>
+      </c>
+      <c r="D2" s="22"/>
       <c r="E2" s="16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>9</v>
@@ -1199,23 +1039,23 @@
     <row r="3" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="6" t="s">
@@ -1228,23 +1068,23 @@
     <row r="4" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="7" t="s">
@@ -1257,12 +1097,12 @@
     <row r="5" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="12" t="s">
         <v>10</v>
       </c>
@@ -1286,12 +1126,12 @@
     <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="12" t="s">
         <v>10</v>
       </c>
@@ -1305,20 +1145,34 @@
         <v>10</v>
       </c>
       <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="1.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
+      <c r="B7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -1326,23 +1180,23 @@
     <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="27"/>
+        <v>34</v>
+      </c>
+      <c r="D8" s="23"/>
       <c r="E8" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1353,24 +1207,18 @@
     <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="14" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>11</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1380,12 +1228,12 @@
     <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="27"/>
+        <v>35</v>
+      </c>
+      <c r="D10" s="23"/>
       <c r="E10" s="12" t="s">
         <v>9</v>
       </c>
@@ -1407,24 +1255,18 @@
     <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="14" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>9</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1434,12 +1276,14 @@
     <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="14" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="27"/>
+      <c r="D12" s="23" t="s">
+        <v>47</v>
+      </c>
       <c r="E12" s="12"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -1453,12 +1297,14 @@
     <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="14" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="27"/>
+        <v>35</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>47</v>
+      </c>
       <c r="E13" s="12"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -1472,12 +1318,14 @@
     <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="14" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="27"/>
+        <v>35</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>47</v>
+      </c>
       <c r="E14" s="12"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -1491,13 +1339,13 @@
     <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="14" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>53</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="9"/>
@@ -1512,13 +1360,13 @@
     <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="14" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>47</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="9"/>
@@ -1533,13 +1381,13 @@
     <row r="17" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="14" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>42</v>
+        <v>57</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>53</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="9"/>
@@ -1554,12 +1402,12 @@
     <row r="18" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="14" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="23" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="12"/>
@@ -1575,18 +1423,24 @@
     <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="14" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1596,18 +1450,26 @@
     <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="14" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="9"/>
+      <c r="D20" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1617,18 +1479,26 @@
     <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="14" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1638,13 +1508,13 @@
     <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="14" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="27" t="s">
-        <v>47</v>
+      <c r="D22" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="9"/>
@@ -1659,13 +1529,13 @@
     <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="14" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>47</v>
+        <v>37</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="9"/>
@@ -1680,17 +1550,17 @@
     <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>47</v>
+        <v>37</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
+      <c r="G24" s="25"/>
       <c r="H24" s="9"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1701,12 +1571,12 @@
     <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="23" t="s">
         <v>47</v>
       </c>
       <c r="E25" s="12"/>
@@ -1722,13 +1592,13 @@
     <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>53</v>
+        <v>37</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>47</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="9"/>
@@ -1743,13 +1613,13 @@
     <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="14" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>53</v>
+        <v>37</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>47</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="9"/>
@@ -1764,14 +1634,12 @@
     <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="14" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>53</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D28" s="23"/>
       <c r="E28" s="12"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -1785,14 +1653,12 @@
     <row r="29" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>47</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D29" s="23"/>
       <c r="E29" s="12"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -1806,18 +1672,24 @@
     <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="14" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -1827,18 +1699,24 @@
     <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="14" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -1848,16 +1726,24 @@
     <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="14" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -1867,16 +1753,22 @@
     <row r="33" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -1886,21 +1778,21 @@
     <row r="34" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="14" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C34" s="18"/>
-      <c r="D34" s="27"/>
+      <c r="D34" s="23"/>
       <c r="E34" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -1911,21 +1803,21 @@
     <row r="35" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="14" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C35" s="18"/>
-      <c r="D35" s="27"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -1933,23 +1825,23 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
-      <c r="B36" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" s="9" t="s">
+      <c r="B36" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I36" s="1"/>
@@ -1958,25 +1850,15 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -2073,15 +1955,15 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -2118,77 +2000,219 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-    </row>
+    <row r="47" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="B1:D48" xr:uid="{4F7D82F0-E572-416B-9143-FF278D256774}"/>
-  <conditionalFormatting sqref="E2:E37">
-    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="I">
+  <autoFilter ref="B1:H242" xr:uid="{27814EF9-73D1-4C82-AC83-F91DD286161F}">
+    <sortState ref="B2:H242">
+      <sortCondition ref="C1:C242"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="E2:H36">
+    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH("I",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="2" priority="14" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1" priority="16" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="0" priority="17" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",E2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F37">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH("I",F2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",F2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",F2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",F2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G37">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH("I",G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",G2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H37">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH("I",H2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",H2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",H2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Gestion de projet/RACI.xlsx
+++ b/Gestion de projet/RACI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\CESI\A2\PROJETS\Web\CESI_A2_Web_G2\Gestion de projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913DEC96-DDDD-486F-9218-5638DD1699BC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5DBF8A-11E9-4F50-9738-89EA4BD35B52}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9048" xr2:uid="{A2076872-6800-46C7-9F42-7FD2B681CA44}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="69">
   <si>
     <t>Tâche / nom</t>
   </si>
@@ -223,6 +223,18 @@
   </si>
   <si>
     <t>CA</t>
+  </si>
+  <si>
+    <t>Fait</t>
+  </si>
+  <si>
+    <t>EN COURS</t>
+  </si>
+  <si>
+    <t>FAIT</t>
+  </si>
+  <si>
+    <t>À FAIRE</t>
   </si>
 </sst>
 </file>
@@ -307,7 +319,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -499,11 +511,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -564,11 +611,195 @@
     <xf numFmtId="20" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="5"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u val="none"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F30D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u val="none"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F30D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -643,8 +874,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{2C2F8519-CCA3-4E50-8C0A-A6948EFBAD6B}">
-      <tableStyleElement type="wholeTable" dxfId="5"/>
-      <tableStyleElement type="headerRow" dxfId="4"/>
+      <tableStyleElement type="wholeTable" dxfId="19"/>
+      <tableStyleElement type="headerRow" dxfId="18"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -961,10 +1192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72003DE1-9E5B-4928-9E7B-541B478A6C02}">
-  <dimension ref="A1:CZ241"/>
+  <dimension ref="A1:DA241"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -973,12 +1204,12 @@
     <col min="2" max="2" width="59.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="12.77734375" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="104" width="11.5546875" style="1"/>
+    <col min="5" max="9" width="12.77734375" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="105" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1001,13 +1232,16 @@
       <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="29" t="s">
+        <v>65</v>
+      </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="13" t="s">
         <v>32</v>
@@ -1025,18 +1259,21 @@
       <c r="G2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="5" t="s">
+      <c r="H2" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="14" t="s">
         <v>17</v>
@@ -1054,18 +1291,21 @@
       <c r="G3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="6" t="s">
+      <c r="H3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="14" t="s">
         <v>20</v>
@@ -1083,18 +1323,21 @@
       <c r="G4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="7" t="s">
+      <c r="I4" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="14" t="s">
         <v>18</v>
@@ -1112,18 +1355,21 @@
       <c r="G5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="8" t="s">
+      <c r="I5" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="14" t="s">
         <v>21</v>
@@ -1141,16 +1387,19 @@
       <c r="G6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="30" t="s">
+        <v>66</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="14" t="s">
         <v>22</v>
@@ -1168,16 +1417,19 @@
       <c r="G7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="14" t="s">
         <v>30</v>
@@ -1195,16 +1447,19 @@
       <c r="G8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="I8" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="14" t="s">
         <v>54</v>
@@ -1218,14 +1473,17 @@
       <c r="E9" s="12"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="1"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="14" t="s">
         <v>29</v>
@@ -1243,16 +1501,19 @@
       <c r="G10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="14" t="s">
         <v>44</v>
@@ -1266,14 +1527,17 @@
       <c r="E11" s="12"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="1"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="14" t="s">
         <v>46</v>
@@ -1287,14 +1551,17 @@
       <c r="E12" s="12"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="1"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="14" t="s">
         <v>49</v>
@@ -1308,14 +1575,17 @@
       <c r="E13" s="12"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="1"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="14" t="s">
         <v>50</v>
@@ -1329,14 +1599,17 @@
       <c r="E14" s="12"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="1"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="14" t="s">
         <v>52</v>
@@ -1350,14 +1623,17 @@
       <c r="E15" s="12"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="1"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="14" t="s">
         <v>60</v>
@@ -1371,14 +1647,17 @@
       <c r="E16" s="12"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="1"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="14" t="s">
         <v>56</v>
@@ -1392,14 +1671,17 @@
       <c r="E17" s="12"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="1"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="14" t="s">
         <v>59</v>
@@ -1413,14 +1695,17 @@
       <c r="E18" s="12"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="1"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="14" t="s">
         <v>31</v>
@@ -1438,16 +1723,19 @@
       <c r="G19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="1"/>
+      <c r="I19" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="14" t="s">
         <v>33</v>
@@ -1467,16 +1755,19 @@
       <c r="G20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I20" s="1"/>
+      <c r="I20" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="14" t="s">
         <v>38</v>
@@ -1496,16 +1787,19 @@
       <c r="G21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="1"/>
+      <c r="I21" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="14" t="s">
         <v>39</v>
@@ -1519,14 +1813,17 @@
       <c r="E22" s="12"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="1"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="14" t="s">
         <v>43</v>
@@ -1540,14 +1837,17 @@
       <c r="E23" s="12"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="1"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="14" t="s">
         <v>45</v>
@@ -1561,14 +1861,17 @@
       <c r="E24" s="12"/>
       <c r="F24" s="9"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="1"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="14" t="s">
         <v>48</v>
@@ -1582,14 +1885,17 @@
       <c r="E25" s="12"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="1"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="14" t="s">
         <v>51</v>
@@ -1603,14 +1909,17 @@
       <c r="E26" s="12"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="1"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="14" t="s">
         <v>58</v>
@@ -1624,14 +1933,17 @@
       <c r="E27" s="12"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="1"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="14" t="s">
         <v>61</v>
@@ -1643,14 +1955,17 @@
       <c r="E28" s="12"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="1"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="14" t="s">
         <v>62</v>
@@ -1662,14 +1977,17 @@
       <c r="E29" s="12"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="1"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="14" t="s">
         <v>25</v>
@@ -1687,16 +2005,19 @@
       <c r="G30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="1"/>
+      <c r="I30" s="30" t="s">
+        <v>67</v>
+      </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="14" t="s">
         <v>26</v>
@@ -1714,16 +2035,19 @@
       <c r="G31" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I31" s="1"/>
+      <c r="I31" s="30" t="s">
+        <v>66</v>
+      </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="14" t="s">
         <v>27</v>
@@ -1741,16 +2065,19 @@
       <c r="G32" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H32" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I32" s="1"/>
+      <c r="H32" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-    </row>
-    <row r="33" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="14" t="s">
         <v>2</v>
@@ -1766,16 +2093,19 @@
       <c r="G33" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H33" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I33" s="1"/>
+      <c r="H33" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-    </row>
-    <row r="34" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="14" t="s">
         <v>28</v>
@@ -1791,16 +2121,19 @@
       <c r="G34" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H34" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="I34" s="1"/>
+      <c r="I34" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-    </row>
-    <row r="35" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="14" t="s">
         <v>3</v>
@@ -1816,16 +2149,19 @@
       <c r="G35" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H35" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I35" s="1"/>
+      <c r="H35" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-    </row>
-    <row r="36" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="15" t="s">
         <v>4</v>
@@ -1841,16 +2177,19 @@
       <c r="G36" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H36" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I36" s="1"/>
+      <c r="H36" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-    </row>
-    <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1859,13 +2198,14 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="1"/>
+      <c r="I37" s="3"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-    </row>
-    <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1874,13 +2214,14 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="1"/>
+      <c r="I38" s="3"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
-    </row>
-    <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1889,13 +2230,14 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="1"/>
+      <c r="I39" s="3"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-    </row>
-    <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1904,13 +2246,14 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="1"/>
+      <c r="I40" s="3"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-    </row>
-    <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1919,13 +2262,14 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="1"/>
+      <c r="I41" s="3"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-    </row>
-    <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1934,13 +2278,14 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="1"/>
+      <c r="I42" s="3"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-    </row>
-    <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1949,13 +2294,14 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
-      <c r="I43" s="1"/>
+      <c r="I43" s="3"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1969,8 +2315,9 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1984,8 +2331,9 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1999,9 +2347,10 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
-    </row>
-    <row r="47" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -2202,17 +2551,28 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="E2:H36">
-    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="I">
+    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="I">
       <formula>NOT(ISERROR(SEARCH("I",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="14" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="16" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="17" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="9" priority="20" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",E2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I36">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="FAIT">
+      <formula>NOT(ISERROR(SEARCH("FAIT",I2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="EN COURS">
+      <formula>NOT(ISERROR(SEARCH("EN COURS",I2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="À FAIRE">
+      <formula>NOT(ISERROR(SEARCH("À FAIRE",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Gestion de projet/RACI.xlsx
+++ b/Gestion de projet/RACI.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\CESI\A2\PROJETS\Web\CESI_A2_Web_G2\Gestion de projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5DBF8A-11E9-4F50-9738-89EA4BD35B52}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26CA6D0-BECF-49A1-AD9A-5CC7F6C0ECC4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9048" xr2:uid="{A2076872-6800-46C7-9F42-7FD2B681CA44}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="9045" xr2:uid="{A2076872-6800-46C7-9F42-7FD2B681CA44}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$B$1:$H$242</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$B$2:$I$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="67">
   <si>
     <t>Tâche / nom</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Gestion de projet</t>
   </si>
   <si>
-    <t>PERT</t>
-  </si>
-  <si>
     <t>RACI</t>
   </si>
   <si>
@@ -106,9 +103,6 @@
   </si>
   <si>
     <t>Zoning</t>
-  </si>
-  <si>
-    <t>Wireframe</t>
   </si>
   <si>
     <t>Mockup</t>
@@ -550,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -624,11 +618,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="9">
     <dxf>
       <font>
         <b/>
@@ -637,7 +634,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC00000"/>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -662,141 +659,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u val="none"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF3F30D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u val="none"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF3F30D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -874,8 +737,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{2C2F8519-CCA3-4E50-8C0A-A6948EFBAD6B}">
-      <tableStyleElement type="wholeTable" dxfId="19"/>
-      <tableStyleElement type="headerRow" dxfId="18"/>
+      <tableStyleElement type="wholeTable" dxfId="8"/>
+      <tableStyleElement type="headerRow" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1192,194 +1055,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72003DE1-9E5B-4928-9E7B-541B478A6C02}">
-  <dimension ref="A1:DA241"/>
+  <dimension ref="A1:DA240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="59.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="12.77734375" customWidth="1"/>
-    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="105" width="11.5546875" style="1"/>
+    <col min="2" max="2" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="105" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>66</v>
+      <c r="I2" s="29" t="s">
+        <v>63</v>
       </c>
       <c r="J2" s="1"/>
-      <c r="K2" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>67</v>
+      <c r="D3" s="22"/>
+      <c r="E3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="J3" s="1"/>
-      <c r="K3" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="14" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="7" t="s">
-        <v>7</v>
+      <c r="K4" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="14" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>10</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="27"/>
       <c r="I5" s="30" t="s">
         <v>66</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="8" t="s">
-        <v>8</v>
+      <c r="K5" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="14" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>9</v>
@@ -1394,64 +1217,56 @@
         <v>66</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="K6" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="14" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>10</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="K7" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="14" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>10</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="27"/>
       <c r="I8" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1459,23 +1274,23 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="14" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="27"/>
       <c r="I9" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1483,29 +1298,23 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="14" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>10</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="27"/>
       <c r="I10" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1513,23 +1322,23 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="27"/>
       <c r="I11" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1537,23 +1346,23 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="14" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="27"/>
       <c r="I12" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1561,23 +1370,23 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="14" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="27"/>
       <c r="I13" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1585,23 +1394,23 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="14" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="27"/>
       <c r="I14" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1609,23 +1418,31 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="14" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="27"/>
+        <v>39</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>10</v>
+      </c>
       <c r="I15" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1633,23 +1450,31 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="14" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="27"/>
+        <v>39</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>10</v>
+      </c>
       <c r="I16" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1657,23 +1482,23 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="14" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="27"/>
       <c r="I17" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1681,23 +1506,23 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="14" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="27"/>
       <c r="I18" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1705,29 +1530,23 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="14" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>10</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="27"/>
       <c r="I19" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1735,31 +1554,23 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="14" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>10</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="27"/>
       <c r="I20" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1767,31 +1578,23 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="14" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>10</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="27"/>
       <c r="I21" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1799,23 +1602,23 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="14" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="27"/>
       <c r="I22" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1823,23 +1626,21 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="14" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D23" s="23"/>
       <c r="E23" s="12"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="27"/>
       <c r="I23" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1847,23 +1648,21 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="14" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>42</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D24" s="23"/>
       <c r="E24" s="12"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="25"/>
+      <c r="G24" s="9"/>
       <c r="H24" s="27"/>
       <c r="I24" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1871,23 +1670,27 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="27"/>
+        <v>26</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>11</v>
+      </c>
       <c r="I25" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -1895,23 +1698,27 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="27"/>
+        <v>3</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>9</v>
+      </c>
       <c r="I26" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1919,23 +1726,27 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="27"/>
+        <v>4</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>9</v>
+      </c>
       <c r="I27" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1943,21 +1754,29 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="14" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D28" s="23"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="27"/>
+      <c r="E28" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>10</v>
+      </c>
       <c r="I28" s="30" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -1965,21 +1784,29 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="14" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="D29" s="23"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="27"/>
+      <c r="E29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>10</v>
+      </c>
       <c r="I29" s="30" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -1987,29 +1814,29 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I30" s="30" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -2017,13 +1844,13 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="12" t="s">
@@ -2033,13 +1860,13 @@
         <v>9</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H31" s="27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I31" s="30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -2047,14 +1874,12 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>24</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C32" s="18"/>
       <c r="D32" s="23"/>
       <c r="E32" s="12" t="s">
         <v>9</v>
@@ -2069,7 +1894,7 @@
         <v>9</v>
       </c>
       <c r="I32" s="30" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -2077,18 +1902,20 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="18"/>
+        <v>30</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>22</v>
+      </c>
       <c r="D33" s="23"/>
       <c r="E33" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>9</v>
@@ -2097,7 +1924,7 @@
         <v>9</v>
       </c>
       <c r="I33" s="30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -2105,27 +1932,29 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="18"/>
+        <v>17</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="D34" s="23"/>
       <c r="E34" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I34" s="30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -2133,27 +1962,29 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H35" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="I35" s="30" t="s">
-        <v>68</v>
+      <c r="B35" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="24"/>
+      <c r="E35" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="31" t="s">
+        <v>65</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -2161,35 +1992,23 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="I36" s="30" t="s">
-        <v>68</v>
-      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2205,7 +2024,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2221,7 +2040,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2237,7 +2056,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2253,7 +2072,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2269,7 +2088,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2285,23 +2104,23 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2317,7 +2136,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2333,246 +2152,230 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="B1:H242" xr:uid="{27814EF9-73D1-4C82-AC83-F91DD286161F}">
-    <sortState ref="B2:H242">
-      <sortCondition ref="C1:C242"/>
+  <autoFilter ref="B2:I2" xr:uid="{A10E8603-A508-4F32-A0B1-EC36B41FE90C}">
+    <sortState ref="B3:I35">
+      <sortCondition ref="I2"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="E2:H36">
-    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="I">
-      <formula>NOT(ISERROR(SEARCH("I",E2)))</formula>
+  <conditionalFormatting sqref="E3:H35">
+    <cfRule type="containsText" dxfId="6" priority="16" operator="containsText" text="I">
+      <formula>NOT(ISERROR(SEARCH("I",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",E2)))</formula>
+    <cfRule type="containsText" dxfId="5" priority="17" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",E2)))</formula>
+    <cfRule type="containsText" dxfId="4" priority="19" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="20" operator="containsText" text="R">
-      <formula>NOT(ISERROR(SEARCH("R",E2)))</formula>
+    <cfRule type="containsText" dxfId="3" priority="20" operator="containsText" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I36">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="FAIT">
-      <formula>NOT(ISERROR(SEARCH("FAIT",I2)))</formula>
+  <conditionalFormatting sqref="I3:I35">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="À FAIRE">
+      <formula>NOT(ISERROR(SEARCH("À FAIRE",I3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="EN COURS">
-      <formula>NOT(ISERROR(SEARCH("EN COURS",I2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN COURS",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="À FAIRE">
-      <formula>NOT(ISERROR(SEARCH("À FAIRE",I2)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="FAIT">
+      <formula>NOT(ISERROR(SEARCH("FAIT",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
